--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2022-2023\TIMES_IERP_SIMPLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2022-2023\TIMES_FULL_STUDENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974D60CD-3626-4E69-8288-5670FEAE414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA83FD-D983-490D-A60E-D19E6D1B658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId3"/>
     <sheet name="Constants" sheetId="20" r:id="rId4"/>
     <sheet name="Defaults" sheetId="21" r:id="rId5"/>
+    <sheet name="Reporting" sheetId="23" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -47,7 +48,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="387">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -94,15 +95,9 @@
     <t>PL</t>
   </si>
   <si>
-    <t>* Globalne ustawienia okresów i lat milowych</t>
-  </si>
-  <si>
     <t>~StartYear</t>
   </si>
   <si>
-    <t>Deact~DefaultYear</t>
-  </si>
-  <si>
     <t>~TimePeriods</t>
   </si>
   <si>
@@ -181,15 +176,21 @@
     <t>Discount</t>
   </si>
   <si>
+    <t>COM_PEAK</t>
+  </si>
+  <si>
+    <t>ELE_WN, ELE_SN, CIEP_WT</t>
+  </si>
+  <si>
+    <t>COM_PKRSV</t>
+  </si>
+  <si>
+    <t>ELE_WN, ELE_SN</t>
+  </si>
+  <si>
     <t>YRFR</t>
   </si>
   <si>
-    <t>* Waluty</t>
-  </si>
-  <si>
-    <t>* Domyślne jednostki</t>
-  </si>
-  <si>
     <t>~Currencies</t>
   </si>
   <si>
@@ -247,9 +248,6 @@
     <t>Commodity_Unit</t>
   </si>
   <si>
-    <t>* Konwersja jednostek w wynikach</t>
-  </si>
-  <si>
     <t>from_unit</t>
   </si>
   <si>
@@ -322,88 +320,913 @@
     <t>Cents per Kwh</t>
   </si>
   <si>
-    <t>Twh</t>
-  </si>
-  <si>
-    <t>Meuro</t>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>1MO1</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>1MO2</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>1MO3</t>
+  </si>
+  <si>
+    <t>4W</t>
+  </si>
+  <si>
+    <t>1MO4</t>
+  </si>
+  <si>
+    <t>1MO5</t>
+  </si>
+  <si>
+    <t>1MO6</t>
+  </si>
+  <si>
+    <t>1MO7</t>
+  </si>
+  <si>
+    <t>1MO8</t>
+  </si>
+  <si>
+    <t>2TU1</t>
+  </si>
+  <si>
+    <t>2TU2</t>
+  </si>
+  <si>
+    <t>2TU3</t>
+  </si>
+  <si>
+    <t>2TU4</t>
+  </si>
+  <si>
+    <t>2TU5</t>
+  </si>
+  <si>
+    <t>2TU6</t>
+  </si>
+  <si>
+    <t>2TU7</t>
+  </si>
+  <si>
+    <t>2TU8</t>
+  </si>
+  <si>
+    <t>3WE1</t>
+  </si>
+  <si>
+    <t>3WE2</t>
+  </si>
+  <si>
+    <t>3WE3</t>
+  </si>
+  <si>
+    <t>3WE4</t>
+  </si>
+  <si>
+    <t>3WE5</t>
+  </si>
+  <si>
+    <t>3WE6</t>
+  </si>
+  <si>
+    <t>3WE7</t>
+  </si>
+  <si>
+    <t>3WE8</t>
+  </si>
+  <si>
+    <t>4TH1</t>
+  </si>
+  <si>
+    <t>4TH2</t>
+  </si>
+  <si>
+    <t>4TH3</t>
+  </si>
+  <si>
+    <t>4TH4</t>
+  </si>
+  <si>
+    <t>4TH5</t>
+  </si>
+  <si>
+    <t>4TH6</t>
+  </si>
+  <si>
+    <t>4TH7</t>
+  </si>
+  <si>
+    <t>4TH8</t>
+  </si>
+  <si>
+    <t>5FR1</t>
+  </si>
+  <si>
+    <t>5FR2</t>
+  </si>
+  <si>
+    <t>5FR3</t>
+  </si>
+  <si>
+    <t>5FR4</t>
+  </si>
+  <si>
+    <t>5FR5</t>
+  </si>
+  <si>
+    <t>5FR6</t>
+  </si>
+  <si>
+    <t>5FR7</t>
+  </si>
+  <si>
+    <t>5FR8</t>
+  </si>
+  <si>
+    <t>6SA1</t>
+  </si>
+  <si>
+    <t>6SA2</t>
+  </si>
+  <si>
+    <t>6SA3</t>
+  </si>
+  <si>
+    <t>6SA4</t>
+  </si>
+  <si>
+    <t>6SA5</t>
+  </si>
+  <si>
+    <t>6SA6</t>
+  </si>
+  <si>
+    <t>6SA7</t>
+  </si>
+  <si>
+    <t>6SA8</t>
+  </si>
+  <si>
+    <t>7SU1</t>
+  </si>
+  <si>
+    <t>7SU2</t>
+  </si>
+  <si>
+    <t>7SU3</t>
+  </si>
+  <si>
+    <t>7SU4</t>
+  </si>
+  <si>
+    <t>7SU5</t>
+  </si>
+  <si>
+    <t>7SU6</t>
+  </si>
+  <si>
+    <t>7SU7</t>
+  </si>
+  <si>
+    <t>7SU8</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Start Year</t>
+  </si>
+  <si>
+    <t>Active period definition</t>
+  </si>
+  <si>
+    <t>Period definition</t>
+  </si>
+  <si>
+    <t>~TFM_MIG</t>
+  </si>
+  <si>
+    <t>Dummy Import Prices</t>
+  </si>
+  <si>
+    <t>Global interpolation settings</t>
+  </si>
+  <si>
+    <t>1R1MO1</t>
+  </si>
+  <si>
+    <t>1R1MO2</t>
+  </si>
+  <si>
+    <t>1R1MO3</t>
+  </si>
+  <si>
+    <t>1R1MO4</t>
+  </si>
+  <si>
+    <t>1R1MO5</t>
+  </si>
+  <si>
+    <t>1R1MO6</t>
+  </si>
+  <si>
+    <t>1R1MO7</t>
+  </si>
+  <si>
+    <t>1R1MO8</t>
+  </si>
+  <si>
+    <t>1R2TU1</t>
+  </si>
+  <si>
+    <t>1R2TU2</t>
+  </si>
+  <si>
+    <t>1R2TU3</t>
+  </si>
+  <si>
+    <t>1R2TU4</t>
+  </si>
+  <si>
+    <t>1R2TU5</t>
+  </si>
+  <si>
+    <t>1R2TU6</t>
+  </si>
+  <si>
+    <t>1R2TU7</t>
+  </si>
+  <si>
+    <t>1R2TU8</t>
+  </si>
+  <si>
+    <t>1R3WE1</t>
+  </si>
+  <si>
+    <t>1R3WE2</t>
+  </si>
+  <si>
+    <t>1R3WE3</t>
+  </si>
+  <si>
+    <t>1R3WE4</t>
+  </si>
+  <si>
+    <t>1R3WE5</t>
+  </si>
+  <si>
+    <t>1R3WE6</t>
+  </si>
+  <si>
+    <t>1R3WE7</t>
+  </si>
+  <si>
+    <t>1R3WE8</t>
+  </si>
+  <si>
+    <t>1R4TH1</t>
+  </si>
+  <si>
+    <t>1R4TH2</t>
+  </si>
+  <si>
+    <t>1R4TH3</t>
+  </si>
+  <si>
+    <t>1R4TH4</t>
+  </si>
+  <si>
+    <t>1R4TH5</t>
+  </si>
+  <si>
+    <t>1R4TH6</t>
+  </si>
+  <si>
+    <t>1R4TH7</t>
+  </si>
+  <si>
+    <t>1R4TH8</t>
+  </si>
+  <si>
+    <t>1R5FR1</t>
+  </si>
+  <si>
+    <t>1R5FR2</t>
+  </si>
+  <si>
+    <t>1R5FR3</t>
+  </si>
+  <si>
+    <t>1R5FR4</t>
+  </si>
+  <si>
+    <t>1R5FR5</t>
+  </si>
+  <si>
+    <t>1R5FR6</t>
+  </si>
+  <si>
+    <t>1R5FR7</t>
+  </si>
+  <si>
+    <t>1R5FR8</t>
+  </si>
+  <si>
+    <t>1R6SA1</t>
+  </si>
+  <si>
+    <t>1R6SA2</t>
+  </si>
+  <si>
+    <t>1R6SA3</t>
+  </si>
+  <si>
+    <t>1R6SA4</t>
+  </si>
+  <si>
+    <t>1R6SA5</t>
+  </si>
+  <si>
+    <t>1R6SA6</t>
+  </si>
+  <si>
+    <t>1R6SA7</t>
+  </si>
+  <si>
+    <t>1R6SA8</t>
+  </si>
+  <si>
+    <t>1R7SU1</t>
+  </si>
+  <si>
+    <t>1R7SU2</t>
+  </si>
+  <si>
+    <t>1R7SU3</t>
+  </si>
+  <si>
+    <t>1R7SU4</t>
+  </si>
+  <si>
+    <t>1R7SU5</t>
+  </si>
+  <si>
+    <t>1R7SU6</t>
+  </si>
+  <si>
+    <t>1R7SU7</t>
+  </si>
+  <si>
+    <t>1R7SU8</t>
+  </si>
+  <si>
+    <t>2S1MO1</t>
+  </si>
+  <si>
+    <t>2S1MO2</t>
+  </si>
+  <si>
+    <t>2S1MO3</t>
+  </si>
+  <si>
+    <t>2S1MO4</t>
+  </si>
+  <si>
+    <t>2S1MO5</t>
+  </si>
+  <si>
+    <t>2S1MO6</t>
+  </si>
+  <si>
+    <t>2S1MO7</t>
+  </si>
+  <si>
+    <t>2S1MO8</t>
+  </si>
+  <si>
+    <t>2S2TU1</t>
+  </si>
+  <si>
+    <t>2S2TU2</t>
+  </si>
+  <si>
+    <t>2S2TU3</t>
+  </si>
+  <si>
+    <t>2S2TU4</t>
+  </si>
+  <si>
+    <t>2S2TU5</t>
+  </si>
+  <si>
+    <t>2S2TU6</t>
+  </si>
+  <si>
+    <t>2S2TU7</t>
+  </si>
+  <si>
+    <t>2S2TU8</t>
+  </si>
+  <si>
+    <t>2S3WE1</t>
+  </si>
+  <si>
+    <t>2S3WE2</t>
+  </si>
+  <si>
+    <t>2S3WE3</t>
+  </si>
+  <si>
+    <t>2S3WE4</t>
+  </si>
+  <si>
+    <t>2S3WE5</t>
+  </si>
+  <si>
+    <t>2S3WE6</t>
+  </si>
+  <si>
+    <t>2S3WE7</t>
+  </si>
+  <si>
+    <t>2S3WE8</t>
+  </si>
+  <si>
+    <t>2S4TH1</t>
+  </si>
+  <si>
+    <t>2S4TH2</t>
+  </si>
+  <si>
+    <t>2S4TH3</t>
+  </si>
+  <si>
+    <t>2S4TH4</t>
+  </si>
+  <si>
+    <t>2S4TH5</t>
+  </si>
+  <si>
+    <t>2S4TH6</t>
+  </si>
+  <si>
+    <t>2S4TH7</t>
+  </si>
+  <si>
+    <t>2S4TH8</t>
+  </si>
+  <si>
+    <t>2S5FR1</t>
+  </si>
+  <si>
+    <t>2S5FR2</t>
+  </si>
+  <si>
+    <t>2S5FR3</t>
+  </si>
+  <si>
+    <t>2S5FR4</t>
+  </si>
+  <si>
+    <t>2S5FR5</t>
+  </si>
+  <si>
+    <t>2S5FR6</t>
+  </si>
+  <si>
+    <t>2S5FR7</t>
+  </si>
+  <si>
+    <t>2S5FR8</t>
+  </si>
+  <si>
+    <t>2S6SA1</t>
+  </si>
+  <si>
+    <t>2S6SA2</t>
+  </si>
+  <si>
+    <t>2S6SA3</t>
+  </si>
+  <si>
+    <t>2S6SA4</t>
+  </si>
+  <si>
+    <t>2S6SA5</t>
+  </si>
+  <si>
+    <t>2S6SA6</t>
+  </si>
+  <si>
+    <t>2S6SA7</t>
+  </si>
+  <si>
+    <t>2S6SA8</t>
+  </si>
+  <si>
+    <t>2S7SU1</t>
+  </si>
+  <si>
+    <t>2S7SU2</t>
+  </si>
+  <si>
+    <t>2S7SU3</t>
+  </si>
+  <si>
+    <t>2S7SU4</t>
+  </si>
+  <si>
+    <t>2S7SU5</t>
+  </si>
+  <si>
+    <t>2S7SU6</t>
+  </si>
+  <si>
+    <t>2S7SU7</t>
+  </si>
+  <si>
+    <t>2S7SU8</t>
+  </si>
+  <si>
+    <t>3F1MO1</t>
+  </si>
+  <si>
+    <t>3F1MO2</t>
+  </si>
+  <si>
+    <t>3F1MO3</t>
+  </si>
+  <si>
+    <t>3F1MO4</t>
+  </si>
+  <si>
+    <t>3F1MO5</t>
+  </si>
+  <si>
+    <t>3F1MO6</t>
+  </si>
+  <si>
+    <t>3F1MO7</t>
+  </si>
+  <si>
+    <t>3F1MO8</t>
+  </si>
+  <si>
+    <t>3F2TU1</t>
+  </si>
+  <si>
+    <t>3F2TU2</t>
+  </si>
+  <si>
+    <t>3F2TU3</t>
+  </si>
+  <si>
+    <t>3F2TU4</t>
+  </si>
+  <si>
+    <t>3F2TU5</t>
+  </si>
+  <si>
+    <t>3F2TU6</t>
+  </si>
+  <si>
+    <t>3F2TU7</t>
+  </si>
+  <si>
+    <t>3F2TU8</t>
+  </si>
+  <si>
+    <t>3F3WE1</t>
+  </si>
+  <si>
+    <t>3F3WE2</t>
+  </si>
+  <si>
+    <t>3F3WE3</t>
+  </si>
+  <si>
+    <t>3F3WE4</t>
+  </si>
+  <si>
+    <t>3F3WE5</t>
+  </si>
+  <si>
+    <t>3F3WE6</t>
+  </si>
+  <si>
+    <t>3F3WE7</t>
+  </si>
+  <si>
+    <t>3F3WE8</t>
+  </si>
+  <si>
+    <t>3F4TH1</t>
+  </si>
+  <si>
+    <t>3F4TH2</t>
+  </si>
+  <si>
+    <t>3F4TH3</t>
+  </si>
+  <si>
+    <t>3F4TH4</t>
+  </si>
+  <si>
+    <t>3F4TH5</t>
+  </si>
+  <si>
+    <t>3F4TH6</t>
+  </si>
+  <si>
+    <t>3F4TH7</t>
+  </si>
+  <si>
+    <t>3F4TH8</t>
+  </si>
+  <si>
+    <t>3F5FR1</t>
+  </si>
+  <si>
+    <t>3F5FR2</t>
+  </si>
+  <si>
+    <t>3F5FR3</t>
+  </si>
+  <si>
+    <t>3F5FR4</t>
+  </si>
+  <si>
+    <t>3F5FR5</t>
+  </si>
+  <si>
+    <t>3F5FR6</t>
+  </si>
+  <si>
+    <t>3F5FR7</t>
+  </si>
+  <si>
+    <t>3F5FR8</t>
+  </si>
+  <si>
+    <t>3F6SA1</t>
+  </si>
+  <si>
+    <t>3F6SA2</t>
+  </si>
+  <si>
+    <t>3F6SA3</t>
+  </si>
+  <si>
+    <t>3F6SA4</t>
+  </si>
+  <si>
+    <t>3F6SA5</t>
+  </si>
+  <si>
+    <t>3F6SA6</t>
+  </si>
+  <si>
+    <t>3F6SA7</t>
+  </si>
+  <si>
+    <t>3F6SA8</t>
+  </si>
+  <si>
+    <t>3F7SU1</t>
+  </si>
+  <si>
+    <t>3F7SU2</t>
+  </si>
+  <si>
+    <t>3F7SU3</t>
+  </si>
+  <si>
+    <t>3F7SU4</t>
+  </si>
+  <si>
+    <t>3F7SU5</t>
+  </si>
+  <si>
+    <t>3F7SU6</t>
+  </si>
+  <si>
+    <t>3F7SU7</t>
+  </si>
+  <si>
+    <t>3F7SU8</t>
+  </si>
+  <si>
+    <t>4W1MO1</t>
+  </si>
+  <si>
+    <t>4W1MO2</t>
+  </si>
+  <si>
+    <t>4W1MO3</t>
+  </si>
+  <si>
+    <t>4W1MO4</t>
+  </si>
+  <si>
+    <t>4W1MO5</t>
+  </si>
+  <si>
+    <t>4W1MO6</t>
+  </si>
+  <si>
+    <t>4W1MO7</t>
+  </si>
+  <si>
+    <t>4W1MO8</t>
+  </si>
+  <si>
+    <t>4W2TU1</t>
+  </si>
+  <si>
+    <t>4W2TU2</t>
+  </si>
+  <si>
+    <t>4W2TU3</t>
+  </si>
+  <si>
+    <t>4W2TU4</t>
+  </si>
+  <si>
+    <t>4W2TU5</t>
+  </si>
+  <si>
+    <t>4W2TU6</t>
+  </si>
+  <si>
+    <t>4W2TU7</t>
+  </si>
+  <si>
+    <t>4W2TU8</t>
+  </si>
+  <si>
+    <t>4W3WE1</t>
+  </si>
+  <si>
+    <t>4W3WE2</t>
+  </si>
+  <si>
+    <t>4W3WE3</t>
+  </si>
+  <si>
+    <t>4W3WE4</t>
+  </si>
+  <si>
+    <t>4W3WE5</t>
+  </si>
+  <si>
+    <t>4W3WE6</t>
+  </si>
+  <si>
+    <t>4W3WE7</t>
+  </si>
+  <si>
+    <t>4W3WE8</t>
+  </si>
+  <si>
+    <t>4W4TH1</t>
+  </si>
+  <si>
+    <t>4W4TH2</t>
+  </si>
+  <si>
+    <t>4W4TH3</t>
+  </si>
+  <si>
+    <t>4W4TH4</t>
+  </si>
+  <si>
+    <t>4W4TH5</t>
+  </si>
+  <si>
+    <t>4W4TH6</t>
+  </si>
+  <si>
+    <t>4W4TH7</t>
+  </si>
+  <si>
+    <t>4W4TH8</t>
+  </si>
+  <si>
+    <t>4W5FR1</t>
+  </si>
+  <si>
+    <t>4W5FR2</t>
+  </si>
+  <si>
+    <t>4W5FR3</t>
+  </si>
+  <si>
+    <t>4W5FR4</t>
+  </si>
+  <si>
+    <t>4W5FR5</t>
+  </si>
+  <si>
+    <t>4W5FR6</t>
+  </si>
+  <si>
+    <t>4W5FR7</t>
+  </si>
+  <si>
+    <t>4W5FR8</t>
+  </si>
+  <si>
+    <t>4W6SA1</t>
+  </si>
+  <si>
+    <t>4W6SA2</t>
+  </si>
+  <si>
+    <t>4W6SA3</t>
+  </si>
+  <si>
+    <t>4W6SA4</t>
+  </si>
+  <si>
+    <t>4W6SA5</t>
+  </si>
+  <si>
+    <t>4W6SA6</t>
+  </si>
+  <si>
+    <t>4W6SA7</t>
+  </si>
+  <si>
+    <t>4W6SA8</t>
+  </si>
+  <si>
+    <t>4W7SU1</t>
+  </si>
+  <si>
+    <t>4W7SU2</t>
+  </si>
+  <si>
+    <t>4W7SU3</t>
+  </si>
+  <si>
+    <t>4W7SU4</t>
+  </si>
+  <si>
+    <t>4W7SU5</t>
+  </si>
+  <si>
+    <t>4W7SU6</t>
+  </si>
+  <si>
+    <t>4W7SU7</t>
+  </si>
+  <si>
+    <t>4W7SU8</t>
+  </si>
+  <si>
+    <t>G_CYCLE</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>For later</t>
   </si>
   <si>
     <t>~UnitConversion</t>
   </si>
   <si>
-    <t>1S</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
-    <t>1W</t>
-  </si>
-  <si>
-    <t>2W</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Timeslices</t>
-  </si>
-  <si>
-    <t>DayNIte</t>
-  </si>
-  <si>
-    <t>Timeslice Name</t>
-  </si>
-  <si>
-    <t>Start Year</t>
-  </si>
-  <si>
-    <t>Default Year if first perion is longer than 1 year</t>
-  </si>
-  <si>
-    <t>Period definition</t>
-  </si>
-  <si>
-    <t>Active period definition</t>
-  </si>
-  <si>
-    <t>~TFM_MIG</t>
-  </si>
-  <si>
-    <t>Global inter / extra polation options</t>
-  </si>
-  <si>
-    <t>Dummy import prices</t>
-  </si>
-  <si>
-    <t>1S1W1D</t>
-  </si>
-  <si>
-    <t>1S1W2D</t>
-  </si>
-  <si>
-    <t>1S2W1D</t>
-  </si>
-  <si>
-    <t>1S2W2D</t>
-  </si>
-  <si>
-    <t>2S1W1D</t>
-  </si>
-  <si>
-    <t>2S1W2D</t>
-  </si>
-  <si>
-    <t>2S2W1D</t>
-  </si>
-  <si>
-    <t>2S2W2D</t>
+    <t>* Currencies</t>
+  </si>
+  <si>
+    <t>* Default Units</t>
+  </si>
+  <si>
+    <t>* Unit Conversion</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>RPT_OPT</t>
+  </si>
+  <si>
+    <t>FLO~3</t>
   </si>
 </sst>
 </file>
@@ -431,7 +1254,7 @@
     <numFmt numFmtId="181" formatCode="yyyy"/>
     <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="86">
+  <fonts count="87">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -952,13 +1775,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
@@ -969,8 +1785,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,12 +2047,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC1"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1501,8 +2343,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="723">
+  <cellStyleXfs count="726">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2493,8 +3346,11 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2511,756 +3367,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="456" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="456" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="44" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="44" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="44" borderId="20" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="45" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="724" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="723" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="487" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="724" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="723" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="487" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="21" xfId="723" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="21" xfId="724" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="24" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="24" xfId="724" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="481" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="724" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="724"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="478"/>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="22" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="19" xfId="725" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="723">
-    <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20 % - Akzent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20 % - Akzent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20 % - Akzent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20 % - Akzent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20 % - Akzent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Accent1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - Accent3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - Accent4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - Accent5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - Accent6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - akcent 1 10" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - akcent 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - akcent 1 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - akcent 1 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - akcent 1 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - akcent 1 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - akcent 1 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - akcent 1 8" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - akcent 1 9" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - akcent 2 10" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - akcent 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - akcent 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - akcent 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - akcent 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="20% - akcent 2 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - akcent 2 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - akcent 2 8" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - akcent 2 9" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - akcent 3 10" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - akcent 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - akcent 3 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - akcent 3 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - akcent 3 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - akcent 3 6" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="20% - akcent 3 7" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="20% - akcent 3 8" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - akcent 3 9" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="20% - akcent 4 10" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - akcent 4 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - akcent 4 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - akcent 4 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="20% - akcent 4 5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - akcent 4 6" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="20% - akcent 4 7" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="20% - akcent 4 8" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="20% - akcent 4 9" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="20% - akcent 5 10" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="20% - akcent 5 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - akcent 5 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="20% - akcent 5 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - akcent 5 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="20% - akcent 5 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - akcent 5 7" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="20% - akcent 5 8" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - akcent 5 9" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="20% - akcent 6 10" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - akcent 6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - akcent 6 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - akcent 6 4" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - akcent 6 5" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - akcent 6 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - akcent 6 7" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - akcent 6 8" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - akcent 6 9" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="2x indented GHG Textfiels" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="2x indented GHG Textfiels 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40 % - Akzent1 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40 % - Akzent2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="40 % - Akzent3 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="40 % - Akzent4 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40 % - Akzent5 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40 % - Akzent6 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="40% - Accent1" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - Accent2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - Accent3" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - Accent4" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - Accent5" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - Accent6" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - akcent 1 10" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - akcent 1 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - akcent 1 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - akcent 1 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - akcent 1 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - akcent 1 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - akcent 1 7" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - akcent 1 8" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - akcent 1 9" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - akcent 2 10" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - akcent 2 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - akcent 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="40% - akcent 2 4" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="40% - akcent 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="40% - akcent 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="40% - akcent 2 7" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="40% - akcent 2 8" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="40% - akcent 2 9" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="40% - akcent 3 10" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="40% - akcent 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="40% - akcent 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="40% - akcent 3 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - akcent 3 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="40% - akcent 3 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="40% - akcent 3 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="40% - akcent 3 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="40% - akcent 3 9" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="40% - akcent 4 10" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="40% - akcent 4 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="40% - akcent 4 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="40% - akcent 4 4" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="40% - akcent 4 5" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="40% - akcent 4 6" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="40% - akcent 4 7" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="40% - akcent 4 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="40% - akcent 4 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="40% - akcent 5 10" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="40% - akcent 5 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="40% - akcent 5 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="40% - akcent 5 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="40% - akcent 5 5" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="40% - akcent 5 6" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="40% - akcent 5 7" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="40% - akcent 5 8" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="40% - akcent 5 9" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="40% - akcent 6 10" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="40% - akcent 6 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="40% - akcent 6 3" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="40% - akcent 6 4" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="40% - akcent 6 5" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="40% - akcent 6 6" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="40% - akcent 6 7" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="40% - akcent 6 8" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="40% - akcent 6 9" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="5x indented GHG Textfiels 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="60 % - Akzent1 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="60 % - Akzent2 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="60 % - Akzent3 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="60 % - Akzent4 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="60 % - Akzent5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="60 % - Akzent6 2" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="60% - Accent1" xfId="143" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="60% - Accent2" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="60% - Accent3" xfId="145" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="60% - Accent4" xfId="146" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="60% - Accent5" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="60% - Accent6" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="60% - akcent 1 10" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="60% - akcent 1 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="60% - akcent 1 3" xfId="151" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="60% - akcent 1 4" xfId="152" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="60% - akcent 1 5" xfId="153" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="60% - akcent 1 6" xfId="154" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="60% - akcent 1 7" xfId="155" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="60% - akcent 1 8" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="60% - akcent 1 9" xfId="157" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="60% - akcent 2 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="60% - akcent 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="60% - akcent 2 3" xfId="160" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="60% - akcent 2 4" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="60% - akcent 2 5" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="60% - akcent 2 6" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="60% - akcent 2 7" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="60% - akcent 2 8" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="60% - akcent 2 9" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="60% - akcent 3 10" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="60% - akcent 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="60% - akcent 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="60% - akcent 3 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="60% - akcent 3 5" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="60% - akcent 3 6" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="60% - akcent 3 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="60% - akcent 3 8" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="60% - akcent 3 9" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="60% - akcent 4 10" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="60% - akcent 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="60% - akcent 4 3" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="60% - akcent 4 4" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="60% - akcent 4 5" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="60% - akcent 4 6" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="60% - akcent 4 7" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="60% - akcent 4 8" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="60% - akcent 4 9" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="60% - akcent 5 10" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="60% - akcent 5 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="60% - akcent 5 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="60% - akcent 5 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="60% - akcent 5 5" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="60% - akcent 5 6" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="60% - akcent 5 7" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="60% - akcent 5 8" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="60% - akcent 5 9" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="60% - akcent 6 10" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="60% - akcent 6 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="60% - akcent 6 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="60% - akcent 6 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="60% - akcent 6 5" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="60% - akcent 6 6" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="60% - akcent 6 7" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="60% - akcent 6 8" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="60% - akcent 6 9" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="Accent1" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="Accent2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="Accent3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="Accent4" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="Accent5" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="Accent6" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="Actual Date" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Akcent 1 10" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="Akcent 1 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Akcent 1 3" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="Akcent 1 4" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="Akcent 1 5" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="Akcent 1 6" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="Akcent 1 7" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Akcent 1 8" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Akcent 1 9" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="Akcent 2 10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="Akcent 2 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="Akcent 2 3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="Akcent 2 4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="Akcent 2 5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="Akcent 2 6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="Akcent 2 7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Akcent 2 8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="Akcent 2 9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Akcent 3 10" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="Akcent 3 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="Akcent 3 3" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="Akcent 3 4" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="Akcent 3 5" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="Akcent 3 6" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="Akcent 3 7" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="Akcent 3 8" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="Akcent 3 9" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="Akcent 4 10" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="Akcent 4 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="Akcent 4 3" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="Akcent 4 4" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="Akcent 4 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="Akcent 4 6" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="Akcent 4 7" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="Akcent 4 8" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="Akcent 4 9" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="Akcent 5 10" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="Akcent 5 2" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="Akcent 5 3" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="Akcent 5 4" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Akcent 5 5" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="Akcent 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="Akcent 5 7" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="Akcent 5 8" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="Akcent 5 9" xfId="254" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="Akcent 6 10" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="Akcent 6 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="Akcent 6 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="Akcent 6 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="Akcent 6 5" xfId="259" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="Akcent 6 6" xfId="260" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="Akcent 6 7" xfId="261" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="Akcent 6 8" xfId="262" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="Akcent 6 9" xfId="263" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="Akzent1 2" xfId="264" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="Akzent2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="Akzent3 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="Akzent4 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="Akzent5 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="Akzent6 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="Ausgabe 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="Bad" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="Berechnung 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="Calculation" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Check Cell" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="ColLevel_" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="Comma0" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="Comma0 - Style1" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Comma0 - Style2" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="Comma0_Input" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="Currency0" xfId="280" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="Dane wejściowe 10" xfId="281" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="Dane wejściowe 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="Dane wejściowe 3" xfId="283" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="Dane wejściowe 4" xfId="284" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="Dane wejściowe 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="Dane wejściowe 6" xfId="286" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="Dane wejściowe 7" xfId="287" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="Dane wejściowe 8" xfId="288" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="Dane wejściowe 9" xfId="289" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="Dane wyjściowe 10" xfId="290" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="Dane wyjściowe 2" xfId="291" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="Dane wyjściowe 3" xfId="292" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="Dane wyjściowe 4" xfId="293" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="Dane wyjściowe 5" xfId="294" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="Dane wyjściowe 6" xfId="295" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="Dane wyjściowe 7" xfId="296" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Dane wyjściowe 8" xfId="297" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Dane wyjściowe 9" xfId="298" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Date" xfId="299" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="DateTime" xfId="300" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Dezimal [0] 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Dezimal 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Dezimal 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Dezimal_Results_Pan_EU_OLGA_NUC" xfId="304" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Dobre 10" xfId="305" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Dobre 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Dobre 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Dobre 4" xfId="308" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Dobre 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Dobre 6" xfId="310" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Dobre 7" xfId="311" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Dobre 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Dobre 9" xfId="313" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Eingabe 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Ergebnis 2" xfId="315" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Erklärender Text 2" xfId="316" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Euro" xfId="317" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Euro 2" xfId="318" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Euro 2 2" xfId="319" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Euro 2 3" xfId="320" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Euro 3" xfId="321" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Explanatory Text" xfId="322" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Fixed" xfId="323" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Fixed1 - Style1" xfId="324" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Good" xfId="325" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Grey" xfId="326" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Gut 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="HEADER" xfId="328" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Heading 1" xfId="329" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Heading 1 10" xfId="330" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Heading 1 11" xfId="331" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Heading 1 12" xfId="332" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Heading 1 13" xfId="333" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Heading 1 14" xfId="334" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Heading 1 15" xfId="335" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Heading 1 16" xfId="336" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Heading 1 17" xfId="337" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Heading 1 18" xfId="338" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="Heading 1 19" xfId="339" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="Heading 1 2" xfId="340" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="Heading 1 3" xfId="341" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="Heading 1 4" xfId="342" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="Heading 1 5" xfId="343" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="Heading 1 6" xfId="344" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="Heading 1 7" xfId="345" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="Heading 1 8" xfId="346" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="Heading 1 9" xfId="347" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="Heading 2" xfId="348" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="Heading 2 10" xfId="349" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="Heading 2 11" xfId="350" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="Heading 2 12" xfId="351" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="Heading 2 13" xfId="352" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="Heading 2 14" xfId="353" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="Heading 2 15" xfId="354" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="Heading 2 16" xfId="355" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="Heading 2 17" xfId="356" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="Heading 2 18" xfId="357" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="Heading 2 19" xfId="358" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="Heading 2 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="Heading 2 3" xfId="360" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="Heading 2 4" xfId="361" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="Heading 2 5" xfId="362" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
-    <cellStyle name="Heading 2 6" xfId="363" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
-    <cellStyle name="Heading 2 7" xfId="364" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
-    <cellStyle name="Heading 2 8" xfId="365" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
-    <cellStyle name="Heading 2 9" xfId="366" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
-    <cellStyle name="Heading 3" xfId="367" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
-    <cellStyle name="Heading 4" xfId="368" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
-    <cellStyle name="Heading1" xfId="369" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
-    <cellStyle name="Heading2" xfId="370" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
-    <cellStyle name="Headline" xfId="371" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
-    <cellStyle name="HIGHLIGHT" xfId="372" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
-    <cellStyle name="Hiperłącze 2" xfId="373" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
-    <cellStyle name="Hiperłącze 2 2" xfId="374" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
-    <cellStyle name="Hiperłącze 2 3" xfId="375" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
-    <cellStyle name="Hyperlink 2" xfId="376" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
-    <cellStyle name="Hyperlink 3" xfId="377" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
-    <cellStyle name="Hyperlink 3 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
-    <cellStyle name="Hyperlink 3 3" xfId="379" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
-    <cellStyle name="Hyperlink 4" xfId="380" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
-    <cellStyle name="Input" xfId="381" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
-    <cellStyle name="Input [yellow]" xfId="382" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
-    <cellStyle name="InputCells" xfId="383" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
-    <cellStyle name="InputCells12_BBorder_CRFReport-template" xfId="384" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
-    <cellStyle name="Komma 2" xfId="385" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
-    <cellStyle name="Komma 3" xfId="386" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
-    <cellStyle name="Komma 4" xfId="387" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
-    <cellStyle name="Komórka połączona 10" xfId="388" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
-    <cellStyle name="Komórka połączona 2" xfId="389" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
-    <cellStyle name="Komórka połączona 3" xfId="390" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
-    <cellStyle name="Komórka połączona 4" xfId="391" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
-    <cellStyle name="Komórka połączona 5" xfId="392" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
-    <cellStyle name="Komórka połączona 6" xfId="393" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
-    <cellStyle name="Komórka połączona 7" xfId="394" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
-    <cellStyle name="Komórka połączona 8" xfId="395" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
-    <cellStyle name="Komórka połączona 9" xfId="396" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
-    <cellStyle name="Komórka zaznaczona 10" xfId="397" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
-    <cellStyle name="Komórka zaznaczona 2" xfId="398" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
-    <cellStyle name="Komórka zaznaczona 3" xfId="399" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
-    <cellStyle name="Komórka zaznaczona 4" xfId="400" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
-    <cellStyle name="Komórka zaznaczona 5" xfId="401" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
-    <cellStyle name="Komórka zaznaczona 6" xfId="402" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
-    <cellStyle name="Komórka zaznaczona 7" xfId="403" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
-    <cellStyle name="Komórka zaznaczona 8" xfId="404" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
-    <cellStyle name="Komórka zaznaczona 9" xfId="405" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
-    <cellStyle name="Linked Cell" xfId="406" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
-    <cellStyle name="Nagłówek 1 10" xfId="407" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
-    <cellStyle name="Nagłówek 1 2" xfId="408" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
-    <cellStyle name="Nagłówek 1 3" xfId="409" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
-    <cellStyle name="Nagłówek 1 4" xfId="410" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
-    <cellStyle name="Nagłówek 1 5" xfId="411" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
-    <cellStyle name="Nagłówek 1 6" xfId="412" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
-    <cellStyle name="Nagłówek 1 7" xfId="413" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
-    <cellStyle name="Nagłówek 1 8" xfId="414" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
-    <cellStyle name="Nagłówek 1 9" xfId="415" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
-    <cellStyle name="Nagłówek 2 10" xfId="416" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
-    <cellStyle name="Nagłówek 2 2" xfId="417" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
-    <cellStyle name="Nagłówek 2 3" xfId="418" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
-    <cellStyle name="Nagłówek 2 4" xfId="419" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
-    <cellStyle name="Nagłówek 2 5" xfId="420" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
-    <cellStyle name="Nagłówek 2 6" xfId="421" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
-    <cellStyle name="Nagłówek 2 7" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
-    <cellStyle name="Nagłówek 2 8" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
-    <cellStyle name="Nagłówek 2 9" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
-    <cellStyle name="Nagłówek 3 10" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
-    <cellStyle name="Nagłówek 3 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
-    <cellStyle name="Nagłówek 3 3" xfId="427" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
-    <cellStyle name="Nagłówek 3 4" xfId="428" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
-    <cellStyle name="Nagłówek 3 5" xfId="429" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
-    <cellStyle name="Nagłówek 3 6" xfId="430" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
-    <cellStyle name="Nagłówek 3 7" xfId="431" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
-    <cellStyle name="Nagłówek 3 8" xfId="432" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
-    <cellStyle name="Nagłówek 3 9" xfId="433" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
-    <cellStyle name="Nagłówek 4 10" xfId="434" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
-    <cellStyle name="Nagłówek 4 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
-    <cellStyle name="Nagłówek 4 3" xfId="436" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
-    <cellStyle name="Nagłówek 4 4" xfId="437" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
-    <cellStyle name="Nagłówek 4 5" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
-    <cellStyle name="Nagłówek 4 6" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
-    <cellStyle name="Nagłówek 4 7" xfId="440" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
-    <cellStyle name="Nagłówek 4 8" xfId="441" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
-    <cellStyle name="Nagłówek 4 9" xfId="442" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
-    <cellStyle name="Neutral" xfId="443" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
-    <cellStyle name="Neutral 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
-    <cellStyle name="Neutralne 10" xfId="445" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
-    <cellStyle name="Neutralne 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
-    <cellStyle name="Neutralne 3" xfId="447" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
-    <cellStyle name="Neutralne 4" xfId="448" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
-    <cellStyle name="Neutralne 5" xfId="449" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
-    <cellStyle name="Neutralne 6" xfId="450" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
-    <cellStyle name="Neutralne 7" xfId="451" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
-    <cellStyle name="Neutralne 8" xfId="452" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
-    <cellStyle name="Neutralne 9" xfId="453" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
-    <cellStyle name="no dec" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+  <cellStyles count="8">
     <cellStyle name="Normal 10" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
-    <cellStyle name="Normal 14" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
-    <cellStyle name="Normal 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
-    <cellStyle name="Normal 20" xfId="459" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
-    <cellStyle name="Normal 21" xfId="460" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
-    <cellStyle name="Normal 3" xfId="461" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
-    <cellStyle name="Normal 3 2" xfId="462" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
-    <cellStyle name="Normal 3 3" xfId="463" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
-    <cellStyle name="Normal 4" xfId="464" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
-    <cellStyle name="Normal 4 2" xfId="465" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
-    <cellStyle name="Normal 5" xfId="466" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
-    <cellStyle name="Normal 5 2" xfId="467" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
-    <cellStyle name="Normal 6" xfId="468" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
-    <cellStyle name="Normal 6 2" xfId="469" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
-    <cellStyle name="Normal 7" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
-    <cellStyle name="Normal 7 2" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
-    <cellStyle name="Normal GHG-Shade" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
-    <cellStyle name="Normal GHG-Shade 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
-    <cellStyle name="Normale_B2020" xfId="475" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="Normalny 10" xfId="476" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
-    <cellStyle name="Normalny 10 2" xfId="477" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Normal 10 2" xfId="724" xr:uid="{EB0C2ED4-4687-4FED-8497-A80B55395A75}"/>
+    <cellStyle name="Normal_Constants 2" xfId="723" xr:uid="{C6AA90A5-1043-4AB8-B229-DB93742915B6}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 11" xfId="478" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
-    <cellStyle name="Normalny 11 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
-    <cellStyle name="Normalny 11 3" xfId="480" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
     <cellStyle name="Normalny 12" xfId="481" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
-    <cellStyle name="Normalny 13" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
-    <cellStyle name="Normalny 13 2" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
-    <cellStyle name="Normalny 13 3" xfId="484" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
-    <cellStyle name="Normalny 14" xfId="485" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
-    <cellStyle name="Normalny 15" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
     <cellStyle name="Normalny 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
-    <cellStyle name="Normalny 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
-    <cellStyle name="Normalny 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
-    <cellStyle name="Normalny 4" xfId="490" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
-    <cellStyle name="Normalny 5" xfId="491" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
-    <cellStyle name="Normalny 6" xfId="492" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
-    <cellStyle name="Normalny 7" xfId="493" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
-    <cellStyle name="Normalny 8" xfId="494" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
-    <cellStyle name="Normalny 9" xfId="495" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
-    <cellStyle name="Note" xfId="496" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
-    <cellStyle name="Notiz 2" xfId="497" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
-    <cellStyle name="Obliczenia 10" xfId="498" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
-    <cellStyle name="Obliczenia 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
-    <cellStyle name="Obliczenia 3" xfId="500" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
-    <cellStyle name="Obliczenia 4" xfId="501" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
-    <cellStyle name="Obliczenia 5" xfId="502" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
-    <cellStyle name="Obliczenia 6" xfId="503" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
-    <cellStyle name="Obliczenia 7" xfId="504" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
-    <cellStyle name="Obliczenia 8" xfId="505" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
-    <cellStyle name="Obliczenia 9" xfId="506" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
-    <cellStyle name="Output" xfId="507" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
-    <cellStyle name="Percent [2]" xfId="508" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
-    <cellStyle name="Procentowy 2" xfId="509" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
-    <cellStyle name="Procentowy 2 2" xfId="510" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
-    <cellStyle name="Procentowy 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
-    <cellStyle name="Procentowy 3" xfId="512" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
-    <cellStyle name="Prozent 2" xfId="513" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
-    <cellStyle name="Prozent 2 2" xfId="514" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
-    <cellStyle name="Prozent 3" xfId="515" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
-    <cellStyle name="Prozent 4" xfId="516" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
-    <cellStyle name="Prozent 5" xfId="517" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
-    <cellStyle name="Prozent 5 2" xfId="518" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
-    <cellStyle name="Prozent 5 3" xfId="519" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
-    <cellStyle name="Prozent 5 4" xfId="520" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
-    <cellStyle name="Prozent 6" xfId="521" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
-    <cellStyle name="Prozent 6 2" xfId="522" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
-    <cellStyle name="Prozent 6 3" xfId="523" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
-    <cellStyle name="Prozent 6 4" xfId="524" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
-    <cellStyle name="Prozent 7" xfId="525" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
-    <cellStyle name="Prozent 8" xfId="526" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
-    <cellStyle name="Prozent 8 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
-    <cellStyle name="RangeName" xfId="528" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
-    <cellStyle name="SAPBEXaggData" xfId="529" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="530" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
-    <cellStyle name="SAPBEXaggItem" xfId="531" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
-    <cellStyle name="SAPBEXaggItemX" xfId="532" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
-    <cellStyle name="SAPBEXchaText" xfId="533" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="534" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="535" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="536" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="537" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="538" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="539" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="540" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="541" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="542" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="543" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="544" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
-    <cellStyle name="SAPBEXfilterText" xfId="545" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
-    <cellStyle name="SAPBEXformats" xfId="546" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="547" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
-    <cellStyle name="SAPBEXheaderText" xfId="548" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
-    <cellStyle name="SAPBEXHLevel0" xfId="549" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
-    <cellStyle name="SAPBEXHLevel0X" xfId="550" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
-    <cellStyle name="SAPBEXHLevel1" xfId="551" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
-    <cellStyle name="SAPBEXHLevel1X" xfId="552" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
-    <cellStyle name="SAPBEXHLevel2" xfId="553" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
-    <cellStyle name="SAPBEXHLevel2X" xfId="554" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
-    <cellStyle name="SAPBEXHLevel3" xfId="555" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
-    <cellStyle name="SAPBEXHLevel3X" xfId="556" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
-    <cellStyle name="SAPBEXresData" xfId="557" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="558" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
-    <cellStyle name="SAPBEXresItem" xfId="559" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
-    <cellStyle name="SAPBEXresItemX" xfId="560" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
-    <cellStyle name="SAPBEXstdData" xfId="561" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="562" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
-    <cellStyle name="SAPBEXstdItem" xfId="563" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
-    <cellStyle name="SAPBEXstdItemX" xfId="564" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
-    <cellStyle name="SAPBEXtitle" xfId="565" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
-    <cellStyle name="SAPBEXundefined" xfId="566" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
-    <cellStyle name="Schlecht 2" xfId="567" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
-    <cellStyle name="Shade" xfId="568" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
-    <cellStyle name="Standaard_Blad1" xfId="569" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
-    <cellStyle name="Standard 10" xfId="570" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
-    <cellStyle name="Standard 11" xfId="571" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
-    <cellStyle name="Standard 11 2" xfId="572" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
-    <cellStyle name="Standard 11 3" xfId="573" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
-    <cellStyle name="Standard 11 4" xfId="574" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
-    <cellStyle name="Standard 12" xfId="575" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
-    <cellStyle name="Standard 13" xfId="576" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
-    <cellStyle name="Standard 2" xfId="577" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
-    <cellStyle name="Standard 2 2" xfId="578" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
-    <cellStyle name="Standard 2 3" xfId="579" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
-    <cellStyle name="Standard 2 3 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
-    <cellStyle name="Standard 2 3 3" xfId="581" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
-    <cellStyle name="Standard 2 4" xfId="582" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
-    <cellStyle name="Standard 2 4 2" xfId="583" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
-    <cellStyle name="Standard 2 4 3" xfId="584" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
-    <cellStyle name="Standard 2 5" xfId="585" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
-    <cellStyle name="Standard 3" xfId="586" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
-    <cellStyle name="Standard 3 2" xfId="587" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
-    <cellStyle name="Standard 4" xfId="588" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
-    <cellStyle name="Standard 4 2" xfId="589" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
-    <cellStyle name="Standard 5" xfId="590" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
-    <cellStyle name="Standard 5 2" xfId="591" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
-    <cellStyle name="Standard 5 2 2" xfId="592" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
-    <cellStyle name="Standard 5 2 2 2" xfId="593" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
-    <cellStyle name="Standard 5 2 2 3" xfId="594" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
-    <cellStyle name="Standard 5 2 3" xfId="595" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
-    <cellStyle name="Standard 5 2 3 2" xfId="596" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
-    <cellStyle name="Standard 5 2 3 3" xfId="597" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
-    <cellStyle name="Standard 5 2 4" xfId="598" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
-    <cellStyle name="Standard 5 2 5" xfId="599" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
-    <cellStyle name="Standard 5 2_ELC_Processes" xfId="600" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
-    <cellStyle name="Standard 5 3" xfId="601" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
-    <cellStyle name="Standard 5 3 2" xfId="602" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
-    <cellStyle name="Standard 5 3 3" xfId="603" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
-    <cellStyle name="Standard 5 4" xfId="604" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
-    <cellStyle name="Standard 5 4 2" xfId="605" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
-    <cellStyle name="Standard 5 4 3" xfId="606" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
-    <cellStyle name="Standard 5 5" xfId="607" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
-    <cellStyle name="Standard 5 5 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
-    <cellStyle name="Standard 5 5 3" xfId="609" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
-    <cellStyle name="Standard 5 6" xfId="610" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
-    <cellStyle name="Standard 5 7" xfId="611" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
-    <cellStyle name="Standard 5_ELC_Processes" xfId="612" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
-    <cellStyle name="Standard 6" xfId="613" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
-    <cellStyle name="Standard 6 2" xfId="614" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
-    <cellStyle name="Standard 7" xfId="615" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
-    <cellStyle name="Standard 8" xfId="616" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
-    <cellStyle name="Standard 8 2" xfId="617" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
-    <cellStyle name="Standard 8 3" xfId="618" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
-    <cellStyle name="Standard 9" xfId="619" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
-    <cellStyle name="Standard 9 2" xfId="620" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
-    <cellStyle name="Standard 9 3" xfId="621" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
-    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="622" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
-    <cellStyle name="Style 21" xfId="623" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
-    <cellStyle name="Style 22" xfId="624" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
-    <cellStyle name="Style 23" xfId="625" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
-    <cellStyle name="Style 24" xfId="626" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
-    <cellStyle name="Style 25" xfId="627" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
-    <cellStyle name="Style 26" xfId="628" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
-    <cellStyle name="Style 27" xfId="629" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
-    <cellStyle name="Style 28" xfId="630" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
-    <cellStyle name="Style 29" xfId="631" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
-    <cellStyle name="Style 30" xfId="632" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
-    <cellStyle name="Style 31" xfId="633" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
-    <cellStyle name="Style 32" xfId="634" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
-    <cellStyle name="Style 33" xfId="635" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
-    <cellStyle name="Style 34" xfId="636" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
-    <cellStyle name="Style 35" xfId="637" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
-    <cellStyle name="Suma 10" xfId="638" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
-    <cellStyle name="Suma 2" xfId="639" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
-    <cellStyle name="Suma 3" xfId="640" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
-    <cellStyle name="Suma 4" xfId="641" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
-    <cellStyle name="Suma 5" xfId="642" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
-    <cellStyle name="Suma 6" xfId="643" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
-    <cellStyle name="Suma 7" xfId="644" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
-    <cellStyle name="Suma 8" xfId="645" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
-    <cellStyle name="Suma 9" xfId="646" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="Tekst objaśnienia 10" xfId="647" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="648" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="649" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="650" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="651" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="652" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="653" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="654" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
-    <cellStyle name="Tekst objaśnienia 9" xfId="655" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 10" xfId="656" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="657" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="658" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="659" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="660" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="661" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="662" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="663" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
-    <cellStyle name="Tekst ostrzeżenia 9" xfId="664" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
-    <cellStyle name="Title" xfId="665" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
-    <cellStyle name="Total" xfId="666" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
-    <cellStyle name="Total 10" xfId="667" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
-    <cellStyle name="Total 11" xfId="668" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
-    <cellStyle name="Total 12" xfId="669" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
-    <cellStyle name="Total 13" xfId="670" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
-    <cellStyle name="Total 14" xfId="671" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
-    <cellStyle name="Total 15" xfId="672" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
-    <cellStyle name="Total 16" xfId="673" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
-    <cellStyle name="Total 17" xfId="674" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
-    <cellStyle name="Total 18" xfId="675" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
-    <cellStyle name="Total 19" xfId="676" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
-    <cellStyle name="Total 2" xfId="677" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
-    <cellStyle name="Total 3" xfId="678" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
-    <cellStyle name="Total 4" xfId="679" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
-    <cellStyle name="Total 5" xfId="680" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
-    <cellStyle name="Total 6" xfId="681" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
-    <cellStyle name="Total 7" xfId="682" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
-    <cellStyle name="Total 8" xfId="683" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
-    <cellStyle name="Total 9" xfId="684" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
-    <cellStyle name="Tytuł 2" xfId="685" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
-    <cellStyle name="Tytuł 3" xfId="686" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
-    <cellStyle name="Überschrift 1 2" xfId="687" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
-    <cellStyle name="Überschrift 2 2" xfId="688" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
-    <cellStyle name="Überschrift 3 2" xfId="689" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
-    <cellStyle name="Überschrift 4 2" xfId="690" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
-    <cellStyle name="Überschrift 5" xfId="691" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
-    <cellStyle name="Unprot" xfId="692" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
-    <cellStyle name="Unprot$" xfId="693" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
-    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="694" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
-    <cellStyle name="Unprotect" xfId="695" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
-    <cellStyle name="Uwaga 10" xfId="696" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
-    <cellStyle name="Uwaga 2" xfId="697" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
-    <cellStyle name="Uwaga 3" xfId="698" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
-    <cellStyle name="Uwaga 4" xfId="699" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
-    <cellStyle name="Uwaga 5" xfId="700" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
-    <cellStyle name="Uwaga 6" xfId="701" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
-    <cellStyle name="Uwaga 7" xfId="702" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
-    <cellStyle name="Uwaga 8" xfId="703" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
-    <cellStyle name="Uwaga 9" xfId="704" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
-    <cellStyle name="Währung 2" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
-    <cellStyle name="Währung 2 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
-    <cellStyle name="Warnender Text 2" xfId="708" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
-    <cellStyle name="Warning Text" xfId="709" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
-    <cellStyle name="X10_Figs 21 dec" xfId="710" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="711" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
-    <cellStyle name="Złe 10" xfId="712" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
-    <cellStyle name="Złe 2" xfId="713" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
-    <cellStyle name="Złe 3" xfId="714" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
-    <cellStyle name="Złe 4" xfId="715" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
-    <cellStyle name="Złe 5" xfId="716" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
-    <cellStyle name="Złe 6" xfId="717" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
-    <cellStyle name="Złe 7" xfId="718" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
-    <cellStyle name="Złe 8" xfId="719" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
-    <cellStyle name="Złe 9" xfId="720" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
-    <cellStyle name="Обычный_2++_CRFReport-template" xfId="721" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
-    <cellStyle name="已访问的超链接" xfId="722" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Normalny 2 3" xfId="725" xr:uid="{1B5E8EBA-37B9-4148-9C3E-C42248866516}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3277,781 +3437,48 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>143616</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA19FCC-A3A8-E406-5339-3DA812F91296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3540432C-E024-A605-6743-2188978ECD86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3307080" y="4335780"/>
-          <a:ext cx="899160" cy="304800"/>
+          <a:off x="4371976" y="864091"/>
+          <a:ext cx="6096000" cy="3775325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>SEASON 1S</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AAC119-C829-41B7-8003-5249C864915F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4709160" y="3870960"/>
-          <a:ext cx="899160" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>WEEKLY 1W</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9A3460-5457-446B-BEF9-0844FB70C763}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4632960" y="4846320"/>
-          <a:ext cx="899160" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>WEEKLY 2W</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CCBE9EE-C3FD-47BF-8075-EA2543A8C8D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6118860" y="3619500"/>
-          <a:ext cx="899160" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>DAYNITE 1D</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB99D209-08F1-440D-BA44-41C93F0FFAFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6118860" y="4114800"/>
-          <a:ext cx="899160" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>DAYNITE 2D</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D24C3C-4742-4C9F-BFF5-D96695FBF24A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6126480" y="4632960"/>
-          <a:ext cx="899160" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>DAYNITE 1D</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B051FEA9-5667-44BC-B1DA-446F498E9BF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6126480" y="5097780"/>
-          <a:ext cx="899160" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>DAYNITE 2D</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F3B550-3C6B-6728-D7FF-EAEB9747C266}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4206240" y="4023360"/>
-          <a:ext cx="502920" cy="464820"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1965DF-963B-D2A5-98FA-90D3FA0F02FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4206240" y="4488180"/>
-          <a:ext cx="426720" cy="510540"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A2BD8B-A6A2-E602-9A02-52E4C70E5014}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5608320" y="3771900"/>
-          <a:ext cx="510540" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40DDB70-BEE6-B987-470F-40FDA454CC6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5608320" y="4023360"/>
-          <a:ext cx="510540" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F3AC85-CDC0-90DC-8054-48AF18C1DFA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5532120" y="4785360"/>
-          <a:ext cx="594360" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D57C317-D24A-E5DB-857C-A09FAE3666FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5532120" y="4998720"/>
-          <a:ext cx="594360" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4124,7 +3551,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -4187,9 +3620,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4227,9 +3660,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4262,9 +3695,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4297,9 +3747,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4473,272 +3940,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="2:8" ht="17.399999999999999">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:7" ht="15">
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" ht="18">
+      <c r="B4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E7" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1">
-      <c r="E10" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="30" t="s">
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="30" t="s">
+    </row>
+    <row r="17" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1">
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" t="str">
-        <f>E11&amp;F11&amp;G11</f>
-        <v>1S1W1D</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ref="H12:H18" si="0">E12&amp;F12&amp;G12</f>
-        <v>1S1W2D</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>1S2W1D</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>1S2W2D</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>2S1W1D</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>2S1W2D</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11">
-      <c r="E17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>2S2W1D</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>2S2W2D</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11">
-      <c r="K21" s="34" t="str">
-        <f>H11</f>
-        <v>1S1W1D</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11">
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="5:11">
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="5:11">
-      <c r="K24" s="34" t="str">
-        <f>H12</f>
-        <v>1S1W2D</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11">
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="5:11">
-      <c r="K26" s="30"/>
-    </row>
-    <row r="27" spans="5:11">
-      <c r="K27" s="34" t="str">
-        <f>H13</f>
-        <v>1S2W1D</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11">
-      <c r="K28" s="30"/>
-    </row>
-    <row r="29" spans="5:11">
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="5:11">
-      <c r="K30" s="34" t="str">
-        <f>H14</f>
-        <v>1S2W2D</v>
+    <row r="18" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4746,88 +4415,74 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:7" ht="15">
+      <c r="B2" s="25"/>
+    </row>
+    <row r="4" spans="2:7" ht="15">
+      <c r="B4" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15">
-      <c r="B4" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1">
+    <row r="7" spans="2:7" ht="15.75" customHeight="1">
       <c r="B7">
         <v>2020</v>
       </c>
-      <c r="D7" s="10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15">
+    </row>
+    <row r="13" spans="2:7" ht="15">
       <c r="B13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="F13" s="18"/>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1">
       <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
+      <c r="E16" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4842,15 +4497,29 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1"/>
+      <c r="B20" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1"/>
+      <c r="B22" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B25" s="15"/>
@@ -4872,1011 +4541,3690 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="12.75" customHeight="1"/>
-    <row r="2" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="3" t="s">
+    <row r="1" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B2" s="25"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B7" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>5</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D12" s="16">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E12" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="16" t="s">
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>5</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" ht="12.75" customHeight="1"/>
-    <row r="13" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B13" s="1" t="s">
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C18">
+        <v>5555</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B15" t="s">
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
-        <v>2222</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="21">
+        <v>9999</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="21">
-        <v>8888</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:Q47"/>
+  <dimension ref="B3:Q233"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="7"/>
+    <col min="5" max="5" width="5.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.399999999999999">
+    <row r="3" spans="2:17" ht="18">
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="7" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32">
+        <v>2020</v>
+      </c>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G9" s="43">
+        <v>52.142857142857146</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="K9" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B10" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B11" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31">
-        <v>2020</v>
-      </c>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32" t="s">
+      <c r="N11" s="13"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32">
-        <v>0.08</v>
-      </c>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
+    </row>
+    <row r="12" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B12" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B10" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26">
-        <f t="shared" ref="G10:G16" si="0">1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B11" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B12" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B13" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
+      <c r="B13" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B14" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="B14" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B15" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-    </row>
-    <row r="25" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-    </row>
-    <row r="34" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-    </row>
-    <row r="35" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-    </row>
-    <row r="36" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-    </row>
-    <row r="37" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-    </row>
-    <row r="38" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-    </row>
-    <row r="39" spans="2:17">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-    </row>
-    <row r="40" spans="2:17">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-    </row>
-    <row r="41" spans="2:17">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-    </row>
-    <row r="42" spans="2:17">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-    </row>
-    <row r="43" spans="2:17">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-    </row>
-    <row r="45" spans="2:17">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-    </row>
-    <row r="46" spans="2:17">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-    </row>
-    <row r="47" spans="2:17">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="B15" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B16" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B17" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B18" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B19" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B20" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B21" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B22" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B23" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B24" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B26" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B27" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B28" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B29" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B30" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B31" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B32" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B33" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B34" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B35" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B36" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B37" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B38" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H38" s="37"/>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B39" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B40" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H40" s="37"/>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B41" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B42" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H42" s="37"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B43" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H43" s="34"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B44" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B45" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H45" s="34"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B46" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H46" s="37"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B47" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H47" s="34"/>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B48" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B49" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B50" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B51" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B52" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H52" s="37"/>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B53" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B54" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H54" s="37"/>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B55" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B56" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H56" s="37"/>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B57" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H57" s="34"/>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B58" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H58" s="37"/>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B59" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H59" s="34"/>
+    </row>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B60" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="37"/>
+      <c r="D60" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H60" s="37"/>
+    </row>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B61" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B62" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H62" s="37"/>
+    </row>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B63" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H63" s="34"/>
+    </row>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B64" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H64" s="37"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B65" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H65" s="34"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B66" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H66" s="37"/>
+    </row>
+    <row r="67" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B67" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H67" s="34"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B68" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H68" s="37"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B69" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="34"/>
+      <c r="D69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H69" s="34"/>
+    </row>
+    <row r="70" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B70" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="37"/>
+      <c r="D70" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H70" s="37"/>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B71" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="34"/>
+      <c r="D71" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H71" s="34"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B72" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="37"/>
+      <c r="D72" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H72" s="37"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B73" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="34"/>
+      <c r="D73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H73" s="34"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B74" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H74" s="37"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B75" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="34"/>
+      <c r="D75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H75" s="34"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B76" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="37"/>
+      <c r="D76" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H76" s="37"/>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B77" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H77" s="34"/>
+    </row>
+    <row r="78" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B78" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="37"/>
+      <c r="D78" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H78" s="37"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B79" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="34"/>
+      <c r="D79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H79" s="34"/>
+    </row>
+    <row r="80" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B80" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" s="37"/>
+      <c r="D80" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H80" s="37"/>
+    </row>
+    <row r="81" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B81" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H81" s="34"/>
+    </row>
+    <row r="82" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B82" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="37"/>
+      <c r="D82" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H82" s="37"/>
+    </row>
+    <row r="83" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B83" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="34"/>
+      <c r="D83" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B84" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="37"/>
+      <c r="D84" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H84" s="37"/>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B85" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="34"/>
+      <c r="D85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H85" s="34"/>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B86" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" s="37"/>
+      <c r="D86" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H86" s="37"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B87" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" s="34"/>
+      <c r="D87" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H87" s="34"/>
+    </row>
+    <row r="88" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B88" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="37"/>
+      <c r="D88" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H88" s="37"/>
+    </row>
+    <row r="89" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B89" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H89" s="34"/>
+    </row>
+    <row r="90" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B90" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="37"/>
+      <c r="D90" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H90" s="37"/>
+    </row>
+    <row r="91" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B91" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C91" s="34"/>
+      <c r="D91" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H91" s="34"/>
+    </row>
+    <row r="92" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B92" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="37"/>
+      <c r="D92" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H92" s="37"/>
+    </row>
+    <row r="93" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B93" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="34"/>
+      <c r="D93" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H93" s="34"/>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B94" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="37"/>
+      <c r="D94" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H94" s="37"/>
+    </row>
+    <row r="95" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B95" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="34"/>
+      <c r="D95" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H95" s="34"/>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B96" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="37"/>
+      <c r="D96" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H96" s="37"/>
+    </row>
+    <row r="97" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B97" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="34"/>
+      <c r="D97" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H97" s="34"/>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B98" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="37"/>
+      <c r="D98" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H98" s="37"/>
+    </row>
+    <row r="99" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B99" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="34"/>
+      <c r="D99" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H99" s="34"/>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B100" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="37"/>
+      <c r="D100" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H100" s="37"/>
+    </row>
+    <row r="101" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B101" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="34"/>
+      <c r="D101" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H101" s="34"/>
+    </row>
+    <row r="102" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B102" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C102" s="37"/>
+      <c r="D102" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H102" s="37"/>
+    </row>
+    <row r="103" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B103" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" s="34"/>
+      <c r="D103" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H103" s="34"/>
+    </row>
+    <row r="104" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B104" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" s="37"/>
+      <c r="D104" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H104" s="37"/>
+    </row>
+    <row r="105" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B105" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" s="34"/>
+      <c r="D105" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H105" s="34"/>
+    </row>
+    <row r="106" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B106" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="37"/>
+      <c r="D106" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H106" s="37"/>
+    </row>
+    <row r="107" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B107" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" s="34"/>
+      <c r="D107" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H107" s="34"/>
+    </row>
+    <row r="108" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B108" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" s="37"/>
+      <c r="D108" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H108" s="37"/>
+    </row>
+    <row r="109" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B109" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109" s="34"/>
+      <c r="D109" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H109" s="34"/>
+    </row>
+    <row r="110" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B110" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C110" s="37"/>
+      <c r="D110" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H110" s="37"/>
+    </row>
+    <row r="111" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B111" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="C111" s="34"/>
+      <c r="D111" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H111" s="34"/>
+    </row>
+    <row r="112" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B112" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" s="37"/>
+      <c r="D112" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H112" s="37"/>
+    </row>
+    <row r="113" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B113" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="34"/>
+      <c r="D113" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H113" s="34"/>
+    </row>
+    <row r="114" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B114" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C114" s="37"/>
+      <c r="D114" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H114" s="37"/>
+    </row>
+    <row r="115" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B115" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="34"/>
+      <c r="D115" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H115" s="34"/>
+    </row>
+    <row r="116" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B116" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" s="37"/>
+      <c r="D116" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H116" s="37"/>
+    </row>
+    <row r="117" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B117" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H117" s="34"/>
+    </row>
+    <row r="118" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B118" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" s="37"/>
+      <c r="D118" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H118" s="37"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B119" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="34"/>
+      <c r="D119" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H119" s="34"/>
+    </row>
+    <row r="120" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B120" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="37"/>
+      <c r="D120" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H120" s="37"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B121" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="34"/>
+      <c r="D121" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H121" s="34"/>
+    </row>
+    <row r="122" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B122" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="37"/>
+      <c r="D122" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H122" s="37"/>
+    </row>
+    <row r="123" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B123" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" s="34"/>
+      <c r="D123" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H123" s="34"/>
+    </row>
+    <row r="124" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B124" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="37"/>
+      <c r="D124" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H124" s="37"/>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B125" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" s="34"/>
+      <c r="D125" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H125" s="34"/>
+    </row>
+    <row r="126" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B126" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C126" s="37"/>
+      <c r="D126" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H126" s="37"/>
+    </row>
+    <row r="127" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B127" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" s="34"/>
+      <c r="D127" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H127" s="34"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B128" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" s="37"/>
+      <c r="D128" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H128" s="37"/>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B129" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129" s="34"/>
+      <c r="D129" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H129" s="34"/>
+    </row>
+    <row r="130" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B130" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130" s="37"/>
+      <c r="D130" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H130" s="37"/>
+    </row>
+    <row r="131" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B131" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="34"/>
+      <c r="D131" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H131" s="34"/>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B132" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" s="37"/>
+      <c r="D132" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H132" s="37"/>
+    </row>
+    <row r="133" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B133" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C133" s="34"/>
+      <c r="D133" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H133" s="34"/>
+    </row>
+    <row r="134" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B134" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" s="37"/>
+      <c r="D134" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H134" s="37"/>
+    </row>
+    <row r="135" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B135" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C135" s="34"/>
+      <c r="D135" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H135" s="34"/>
+    </row>
+    <row r="136" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B136" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="37"/>
+      <c r="D136" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H136" s="37"/>
+    </row>
+    <row r="137" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B137" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C137" s="34"/>
+      <c r="D137" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H137" s="34"/>
+    </row>
+    <row r="138" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B138" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" s="37"/>
+      <c r="D138" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H138" s="37"/>
+    </row>
+    <row r="139" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B139" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C139" s="34"/>
+      <c r="D139" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H139" s="34"/>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B140" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" s="37"/>
+      <c r="D140" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H140" s="37"/>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B141" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" s="34"/>
+      <c r="D141" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H141" s="34"/>
+    </row>
+    <row r="142" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B142" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" s="37"/>
+      <c r="D142" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" s="37"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H142" s="37"/>
+    </row>
+    <row r="143" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B143" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" s="34"/>
+      <c r="D143" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H143" s="34"/>
+    </row>
+    <row r="144" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B144" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="37"/>
+      <c r="D144" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H144" s="37"/>
+    </row>
+    <row r="145" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B145" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" s="34"/>
+      <c r="D145" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H145" s="34"/>
+    </row>
+    <row r="146" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B146" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" s="37"/>
+      <c r="D146" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H146" s="37"/>
+    </row>
+    <row r="147" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B147" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="34"/>
+      <c r="D147" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H147" s="34"/>
+    </row>
+    <row r="148" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B148" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="37"/>
+      <c r="D148" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H148" s="37"/>
+    </row>
+    <row r="149" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B149" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="34"/>
+      <c r="D149" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E149" s="34"/>
+      <c r="F149" s="34"/>
+      <c r="G149" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H149" s="34"/>
+    </row>
+    <row r="150" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B150" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C150" s="37"/>
+      <c r="D150" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H150" s="37"/>
+    </row>
+    <row r="151" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B151" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="34"/>
+      <c r="D151" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E151" s="34"/>
+      <c r="F151" s="34"/>
+      <c r="G151" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H151" s="34"/>
+    </row>
+    <row r="152" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B152" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C152" s="37"/>
+      <c r="D152" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H152" s="37"/>
+    </row>
+    <row r="153" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B153" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="C153" s="34"/>
+      <c r="D153" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H153" s="34"/>
+    </row>
+    <row r="154" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B154" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C154" s="37"/>
+      <c r="D154" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H154" s="37"/>
+    </row>
+    <row r="155" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B155" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C155" s="34"/>
+      <c r="D155" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H155" s="34"/>
+    </row>
+    <row r="156" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B156" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C156" s="37"/>
+      <c r="D156" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H156" s="37"/>
+    </row>
+    <row r="157" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B157" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C157" s="34"/>
+      <c r="D157" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E157" s="34"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H157" s="34"/>
+    </row>
+    <row r="158" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B158" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" s="37"/>
+      <c r="D158" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H158" s="37"/>
+    </row>
+    <row r="159" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B159" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="34"/>
+      <c r="D159" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E159" s="34"/>
+      <c r="F159" s="34"/>
+      <c r="G159" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H159" s="34"/>
+    </row>
+    <row r="160" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B160" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C160" s="37"/>
+      <c r="D160" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H160" s="37"/>
+    </row>
+    <row r="161" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B161" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C161" s="34"/>
+      <c r="D161" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" s="34"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H161" s="34"/>
+    </row>
+    <row r="162" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B162" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C162" s="37"/>
+      <c r="D162" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H162" s="37"/>
+    </row>
+    <row r="163" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B163" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C163" s="34"/>
+      <c r="D163" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E163" s="34"/>
+      <c r="F163" s="34"/>
+      <c r="G163" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H163" s="34"/>
+    </row>
+    <row r="164" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B164" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C164" s="37"/>
+      <c r="D164" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H164" s="37"/>
+    </row>
+    <row r="165" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B165" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" s="34"/>
+      <c r="D165" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E165" s="34"/>
+      <c r="F165" s="34"/>
+      <c r="G165" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H165" s="34"/>
+    </row>
+    <row r="166" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B166" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" s="37"/>
+      <c r="D166" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E166" s="37"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H166" s="37"/>
+    </row>
+    <row r="167" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B167" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C167" s="34"/>
+      <c r="D167" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E167" s="34"/>
+      <c r="F167" s="34"/>
+      <c r="G167" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H167" s="34"/>
+    </row>
+    <row r="168" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B168" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C168" s="37"/>
+      <c r="D168" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H168" s="37"/>
+    </row>
+    <row r="169" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B169" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C169" s="34"/>
+      <c r="D169" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H169" s="34"/>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B170" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="C170" s="37"/>
+      <c r="D170" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E170" s="37"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H170" s="37"/>
+    </row>
+    <row r="171" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B171" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C171" s="34"/>
+      <c r="D171" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H171" s="34"/>
+    </row>
+    <row r="172" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B172" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C172" s="37"/>
+      <c r="D172" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E172" s="37"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H172" s="37"/>
+    </row>
+    <row r="173" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B173" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C173" s="34"/>
+      <c r="D173" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H173" s="34"/>
+    </row>
+    <row r="174" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B174" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C174" s="37"/>
+      <c r="D174" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H174" s="37"/>
+    </row>
+    <row r="175" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B175" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C175" s="34"/>
+      <c r="D175" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E175" s="34"/>
+      <c r="F175" s="34"/>
+      <c r="G175" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H175" s="34"/>
+    </row>
+    <row r="176" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B176" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C176" s="37"/>
+      <c r="D176" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E176" s="37"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H176" s="37"/>
+    </row>
+    <row r="177" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B177" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C177" s="34"/>
+      <c r="D177" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E177" s="34"/>
+      <c r="F177" s="34"/>
+      <c r="G177" s="34">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H177" s="34"/>
+    </row>
+    <row r="178" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B178" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C178" s="37"/>
+      <c r="D178" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E178" s="37"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H178" s="37"/>
+    </row>
+    <row r="179" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B179" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C179" s="34"/>
+      <c r="D179" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E179" s="34"/>
+      <c r="F179" s="34"/>
+      <c r="G179" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H179" s="34"/>
+    </row>
+    <row r="180" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B180" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C180" s="37"/>
+      <c r="D180" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H180" s="37"/>
+    </row>
+    <row r="181" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B181" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C181" s="34"/>
+      <c r="D181" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E181" s="34"/>
+      <c r="F181" s="34"/>
+      <c r="G181" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H181" s="34"/>
+    </row>
+    <row r="182" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B182" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C182" s="37"/>
+      <c r="D182" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H182" s="37"/>
+    </row>
+    <row r="183" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B183" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" s="34"/>
+      <c r="D183" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E183" s="34"/>
+      <c r="F183" s="34"/>
+      <c r="G183" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H183" s="34"/>
+    </row>
+    <row r="184" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B184" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C184" s="37"/>
+      <c r="D184" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E184" s="37"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H184" s="37"/>
+    </row>
+    <row r="185" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B185" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C185" s="34"/>
+      <c r="D185" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E185" s="34"/>
+      <c r="F185" s="34"/>
+      <c r="G185" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H185" s="34"/>
+    </row>
+    <row r="186" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B186" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C186" s="37"/>
+      <c r="D186" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E186" s="37"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H186" s="37"/>
+    </row>
+    <row r="187" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B187" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C187" s="34"/>
+      <c r="D187" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E187" s="34"/>
+      <c r="F187" s="34"/>
+      <c r="G187" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H187" s="34"/>
+    </row>
+    <row r="188" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B188" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="C188" s="37"/>
+      <c r="D188" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E188" s="37"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H188" s="37"/>
+    </row>
+    <row r="189" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B189" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C189" s="34"/>
+      <c r="D189" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E189" s="34"/>
+      <c r="F189" s="34"/>
+      <c r="G189" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H189" s="34"/>
+    </row>
+    <row r="190" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B190" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C190" s="37"/>
+      <c r="D190" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H190" s="37"/>
+    </row>
+    <row r="191" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B191" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C191" s="34"/>
+      <c r="D191" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E191" s="34"/>
+      <c r="F191" s="34"/>
+      <c r="G191" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H191" s="34"/>
+    </row>
+    <row r="192" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B192" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C192" s="37"/>
+      <c r="D192" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E192" s="37"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H192" s="37"/>
+    </row>
+    <row r="193" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B193" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="C193" s="34"/>
+      <c r="D193" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H193" s="34"/>
+    </row>
+    <row r="194" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B194" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C194" s="37"/>
+      <c r="D194" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E194" s="37"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H194" s="37"/>
+    </row>
+    <row r="195" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B195" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C195" s="34"/>
+      <c r="D195" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E195" s="34"/>
+      <c r="F195" s="34"/>
+      <c r="G195" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H195" s="34"/>
+    </row>
+    <row r="196" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B196" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C196" s="37"/>
+      <c r="D196" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" s="37"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H196" s="37"/>
+    </row>
+    <row r="197" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B197" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C197" s="34"/>
+      <c r="D197" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H197" s="34"/>
+    </row>
+    <row r="198" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B198" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C198" s="37"/>
+      <c r="D198" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E198" s="37"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H198" s="37"/>
+    </row>
+    <row r="199" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B199" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C199" s="34"/>
+      <c r="D199" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E199" s="34"/>
+      <c r="F199" s="34"/>
+      <c r="G199" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H199" s="34"/>
+    </row>
+    <row r="200" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B200" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" s="37"/>
+      <c r="D200" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E200" s="37"/>
+      <c r="F200" s="37"/>
+      <c r="G200" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H200" s="37"/>
+    </row>
+    <row r="201" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B201" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C201" s="34"/>
+      <c r="D201" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E201" s="34"/>
+      <c r="F201" s="34"/>
+      <c r="G201" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H201" s="34"/>
+    </row>
+    <row r="202" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B202" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C202" s="37"/>
+      <c r="D202" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E202" s="37"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H202" s="37"/>
+    </row>
+    <row r="203" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B203" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C203" s="34"/>
+      <c r="D203" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+      <c r="G203" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H203" s="34"/>
+    </row>
+    <row r="204" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B204" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C204" s="37"/>
+      <c r="D204" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E204" s="37"/>
+      <c r="F204" s="37"/>
+      <c r="G204" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H204" s="37"/>
+    </row>
+    <row r="205" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B205" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C205" s="34"/>
+      <c r="D205" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E205" s="34"/>
+      <c r="F205" s="34"/>
+      <c r="G205" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H205" s="34"/>
+    </row>
+    <row r="206" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B206" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C206" s="37"/>
+      <c r="D206" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E206" s="37"/>
+      <c r="F206" s="37"/>
+      <c r="G206" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H206" s="37"/>
+    </row>
+    <row r="207" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B207" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C207" s="34"/>
+      <c r="D207" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H207" s="34"/>
+    </row>
+    <row r="208" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B208" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C208" s="37"/>
+      <c r="D208" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E208" s="37"/>
+      <c r="F208" s="37"/>
+      <c r="G208" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H208" s="37"/>
+    </row>
+    <row r="209" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B209" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C209" s="34"/>
+      <c r="D209" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E209" s="34"/>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H209" s="34"/>
+    </row>
+    <row r="210" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B210" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C210" s="37"/>
+      <c r="D210" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E210" s="37"/>
+      <c r="F210" s="37"/>
+      <c r="G210" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H210" s="37"/>
+    </row>
+    <row r="211" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B211" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C211" s="34"/>
+      <c r="D211" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H211" s="34"/>
+    </row>
+    <row r="212" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B212" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="C212" s="37"/>
+      <c r="D212" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E212" s="37"/>
+      <c r="F212" s="37"/>
+      <c r="G212" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H212" s="37"/>
+    </row>
+    <row r="213" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B213" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C213" s="34"/>
+      <c r="D213" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
+      <c r="G213" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H213" s="34"/>
+    </row>
+    <row r="214" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B214" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="C214" s="37"/>
+      <c r="D214" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E214" s="37"/>
+      <c r="F214" s="37"/>
+      <c r="G214" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H214" s="37"/>
+    </row>
+    <row r="215" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B215" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C215" s="34"/>
+      <c r="D215" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E215" s="34"/>
+      <c r="F215" s="34"/>
+      <c r="G215" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H215" s="34"/>
+    </row>
+    <row r="216" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B216" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C216" s="37"/>
+      <c r="D216" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E216" s="37"/>
+      <c r="F216" s="37"/>
+      <c r="G216" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H216" s="37"/>
+    </row>
+    <row r="217" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B217" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C217" s="34"/>
+      <c r="D217" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E217" s="34"/>
+      <c r="F217" s="34"/>
+      <c r="G217" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H217" s="34"/>
+    </row>
+    <row r="218" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B218" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C218" s="37"/>
+      <c r="D218" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E218" s="37"/>
+      <c r="F218" s="37"/>
+      <c r="G218" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H218" s="37"/>
+    </row>
+    <row r="219" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B219" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C219" s="34"/>
+      <c r="D219" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E219" s="34"/>
+      <c r="F219" s="34"/>
+      <c r="G219" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H219" s="34"/>
+    </row>
+    <row r="220" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B220" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C220" s="37"/>
+      <c r="D220" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E220" s="37"/>
+      <c r="F220" s="37"/>
+      <c r="G220" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H220" s="37"/>
+    </row>
+    <row r="221" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B221" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="C221" s="34"/>
+      <c r="D221" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E221" s="34"/>
+      <c r="F221" s="34"/>
+      <c r="G221" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H221" s="34"/>
+    </row>
+    <row r="222" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B222" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C222" s="37"/>
+      <c r="D222" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E222" s="37"/>
+      <c r="F222" s="37"/>
+      <c r="G222" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H222" s="37"/>
+    </row>
+    <row r="223" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B223" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C223" s="34"/>
+      <c r="D223" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E223" s="34"/>
+      <c r="F223" s="34"/>
+      <c r="G223" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H223" s="34"/>
+    </row>
+    <row r="224" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B224" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="C224" s="37"/>
+      <c r="D224" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E224" s="37"/>
+      <c r="F224" s="37"/>
+      <c r="G224" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H224" s="37"/>
+    </row>
+    <row r="225" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B225" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="C225" s="34"/>
+      <c r="D225" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E225" s="34"/>
+      <c r="F225" s="34"/>
+      <c r="G225" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H225" s="34"/>
+    </row>
+    <row r="226" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B226" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="C226" s="37"/>
+      <c r="D226" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E226" s="37"/>
+      <c r="F226" s="37"/>
+      <c r="G226" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H226" s="37"/>
+    </row>
+    <row r="227" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B227" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="C227" s="34"/>
+      <c r="D227" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E227" s="34"/>
+      <c r="F227" s="34"/>
+      <c r="G227" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H227" s="34"/>
+    </row>
+    <row r="228" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B228" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C228" s="37"/>
+      <c r="D228" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E228" s="37"/>
+      <c r="F228" s="37"/>
+      <c r="G228" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H228" s="37"/>
+    </row>
+    <row r="229" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B229" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C229" s="34"/>
+      <c r="D229" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E229" s="34"/>
+      <c r="F229" s="34"/>
+      <c r="G229" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H229" s="34"/>
+    </row>
+    <row r="230" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B230" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="C230" s="37"/>
+      <c r="D230" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E230" s="37"/>
+      <c r="F230" s="37"/>
+      <c r="G230" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H230" s="37"/>
+    </row>
+    <row r="231" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B231" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C231" s="34"/>
+      <c r="D231" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E231" s="34"/>
+      <c r="F231" s="34"/>
+      <c r="G231" s="34">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H231" s="34"/>
+    </row>
+    <row r="232" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B232" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C232" s="37"/>
+      <c r="D232" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E232" s="37"/>
+      <c r="F232" s="37"/>
+      <c r="G232" s="37">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H232" s="37"/>
+    </row>
+    <row r="233" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B233" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C233" s="41"/>
+      <c r="D233" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E233" s="41"/>
+      <c r="F233" s="41"/>
+      <c r="G233" s="41">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H233" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5891,24 +8239,23 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -5968,25 +8315,25 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6019,9 +8366,9 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="11" spans="2:9" ht="17.399999999999999">
+    <row r="11" spans="2:9" ht="18">
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>382</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6029,23 +8376,23 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>52</v>
@@ -6055,41 +8402,41 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>3.6</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="11">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="23">
+      <c r="D18" s="24">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>52</v>
@@ -6099,19 +8446,19 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B20" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="24">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>52</v>
@@ -6121,63 +8468,63 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B22" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="24">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="11">
         <v>1000000</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="D24" s="24">
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="D25" s="11">
         <v>0.15384600000000001</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="D26" s="24">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>52</v>
@@ -6187,19 +8534,19 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B28" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="24">
         <v>37.681199999999997</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>52</v>
@@ -6209,46 +8556,47 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B30" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="B30" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="24">
         <v>2.7777769999999999</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="11">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B32" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="11">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B32" s="23" t="s">
+      <c r="C32" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="23">
+      <c r="D32" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="14">
         <v>4.5</v>
       </c>
     </row>
@@ -6258,9 +8606,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C8BD73-0DF8-4F72-B0F0-D4FB13B1EA60}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="47"/>
+    <col min="2" max="2" width="10.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="13.5" thickBot="1">
+      <c r="B4" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304d45e6d5149914c9d9c7e63f737d0c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab2ce33a85fc3634f0c8a3fa79a735e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
     <xsd:import namespace="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
     <xsd:element name="properties">
@@ -6309,7 +8708,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="58a8bd51-6561-42ef-8e0a-a55781e8d45f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -6328,7 +8727,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -6345,8 +8744,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -6451,7 +8850,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00C35CC7-9524-4ABC-AF93-353A404FF8AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5ECD8B3-6362-4D54-8090-8D07566A93B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6461,6 +8860,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
